--- a/results/TEST_4_simple_table.xlsx
+++ b/results/TEST_4_simple_table.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,6 +44,9 @@
       <name val="Calibri"/>
       <color rgb="0045455d"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -90,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -109,6 +112,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -477,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +497,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
   </cols>
@@ -571,54 +583,58 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-    </row>
-    <row r="8"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+    </row>
     <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>P2 - Test question 2</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-    </row>
+    <row r="10"/>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>P1 - Test question 1</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.2535211267605634</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>4</v>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="B13" s="5" t="n">
         <v>16</v>
@@ -628,107 +644,111 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>7</v>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
       </c>
       <c r="B14" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.2253521126760563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>0.2957746478873239</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.2253521126760563</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>Footer // This table was calculated by a variable operation P2 - Test question 2 * Expansion_factor</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>P3 - Test question 3</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Chevrolet</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="B24" s="5" t="n">
@@ -741,46 +761,46 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Subaru</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Subaru</t>
         </is>
       </c>
       <c r="B28" s="5" t="n">
@@ -791,22 +811,61 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B29" s="8" t="n"/>
-      <c r="C29" s="8" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -818,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,94 +945,120 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
-    </row>
-    <row r="6"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+    </row>
     <row r="7"/>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C13" s="6" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/TEST_4_simple_table.xlsx
+++ b/results/TEST_4_simple_table.xlsx
@@ -63,8 +63,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c3b6a1"/>
-        <bgColor rgb="00c3b6a1"/>
+        <fgColor rgb="00C5D9F1"/>
+        <bgColor rgb="00C5D9F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,15 +78,15 @@
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
       <bottom style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </bottom>
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
     </border>
   </borders>
